--- a/players_stats/Chris Johnson.xlsx
+++ b/players_stats/Chris Johnson.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,80 +429,115 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>3P</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>3PA</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>3P%</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2P</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2PA</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2P%</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>eFG%</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>FTA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>FT%</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>ORB</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>DRB</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>TRB</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>AST</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>STL</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>BLK</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>TOV</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>PF</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>PTS</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Height</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Weight</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>ShootingHand</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>draftRank</t>
         </is>
@@ -517,15 +552,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1972-73</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>TOT</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -535,69 +570,98 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>70</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
       <c r="J2" t="n">
-        <v>887</v>
+        <v>138</v>
       </c>
       <c r="K2" t="n">
-        <v>171</v>
+        <v>9</v>
       </c>
       <c r="L2" t="n">
-        <v>400</v>
+        <v>21</v>
       </c>
       <c r="M2" t="n">
-        <v>0.428</v>
+        <v>0.429</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="n">
+        <v>9</v>
+      </c>
+      <c r="R2" t="n">
+        <v>21</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="U2" t="n">
+        <v>15</v>
+      </c>
+      <c r="V2" t="n">
+        <v>20</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="X2" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF2" t="n">
         <v>33</v>
       </c>
-      <c r="O2" t="n">
-        <v>46</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.7170000000000001</v>
-      </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
-        <v>132</v>
-      </c>
-      <c r="T2" t="n">
-        <v>118</v>
-      </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="n">
-        <v>105</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>375</v>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 183</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 77 </t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 211</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 95 </t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AC2" t="n">
-        <v>93</v>
-      </c>
+      <c r="AJ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -608,15 +672,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1973-74</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -626,77 +690,98 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>59</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
       <c r="J3" t="n">
-        <v>1051</v>
+        <v>106</v>
       </c>
       <c r="K3" t="n">
-        <v>194</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
-        <v>468</v>
+        <v>18</v>
       </c>
       <c r="M3" t="n">
-        <v>0.415</v>
+        <v>0.389</v>
       </c>
       <c r="N3" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>55</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.6909999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="R3" t="n">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="S3" t="n">
-        <v>175</v>
+        <v>0.389</v>
       </c>
       <c r="T3" t="n">
-        <v>102</v>
+        <v>0.389</v>
       </c>
       <c r="U3" t="n">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="V3" t="n">
-        <v>7</v>
-      </c>
-      <c r="W3" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.722</v>
+      </c>
       <c r="X3" t="n">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>426</v>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 183</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 77 </t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+        <v>16</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 211</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 95 </t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AC3" t="n">
-        <v>93</v>
-      </c>
+      <c r="AJ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -707,7 +792,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1974-75</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -715,7 +800,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -725,77 +810,98 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>79</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
       <c r="J4" t="n">
-        <v>2171</v>
+        <v>32</v>
       </c>
       <c r="K4" t="n">
-        <v>394</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>957</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>0.412</v>
+        <v>0.667</v>
       </c>
       <c r="N4" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>102</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.735</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>134</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>177</v>
+        <v>3</v>
       </c>
       <c r="S4" t="n">
-        <v>311</v>
+        <v>0.667</v>
       </c>
       <c r="T4" t="n">
-        <v>233</v>
+        <v>0.667</v>
       </c>
       <c r="U4" t="n">
-        <v>138</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>8</v>
-      </c>
-      <c r="W4" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1</v>
+      </c>
       <c r="X4" t="n">
-        <v>204</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="n">
-        <v>863</v>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 183</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 77 </t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 211</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 95 </t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AC4" t="n">
-        <v>93</v>
-      </c>
+      <c r="AJ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -806,7 +912,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1975-76</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -814,7 +920,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>TOT</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -824,77 +930,98 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>81</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
       <c r="J5" t="n">
-        <v>1549</v>
+        <v>175</v>
       </c>
       <c r="K5" t="n">
-        <v>342</v>
+        <v>20</v>
       </c>
       <c r="L5" t="n">
-        <v>732</v>
+        <v>41</v>
       </c>
       <c r="M5" t="n">
-        <v>0.467</v>
+        <v>0.488</v>
       </c>
       <c r="N5" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>79</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.759</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="R5" t="n">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="S5" t="n">
-        <v>202</v>
+        <v>0.488</v>
       </c>
       <c r="T5" t="n">
-        <v>122</v>
+        <v>0.488</v>
       </c>
       <c r="U5" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="V5" t="n">
-        <v>7</v>
-      </c>
-      <c r="W5" t="inlineStr"/>
+        <v>19</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.789</v>
+      </c>
       <c r="X5" t="n">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>744</v>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 183</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 77 </t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+        <v>25</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>33</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 211</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 95 </t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AC5" t="n">
-        <v>93</v>
-      </c>
+      <c r="AJ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -905,15 +1032,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1976-77</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -923,77 +1050,98 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>79</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
       <c r="J6" t="n">
-        <v>1196</v>
+        <v>93</v>
       </c>
       <c r="K6" t="n">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="L6" t="n">
-        <v>583</v>
+        <v>23</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.478</v>
       </c>
       <c r="N6" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>69</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="R6" t="n">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="S6" t="n">
-        <v>141</v>
+        <v>0.478</v>
       </c>
       <c r="T6" t="n">
-        <v>91</v>
+        <v>0.478</v>
       </c>
       <c r="U6" t="n">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="V6" t="n">
+        <v>12</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="X6" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD6" t="n">
         <v>7</v>
       </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="n">
-        <v>134</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>559</v>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 183</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 77 </t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AE6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 211</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 95 </t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AC6" t="n">
-        <v>93</v>
-      </c>
+      <c r="AJ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1004,15 +1152,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1977-78</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>TOT</t>
+          <t>NOH</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1022,79 +1170,98 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>71</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
       <c r="J7" t="n">
-        <v>1299</v>
+        <v>82</v>
       </c>
       <c r="K7" t="n">
-        <v>237</v>
+        <v>9</v>
       </c>
       <c r="L7" t="n">
-        <v>581</v>
+        <v>18</v>
       </c>
       <c r="M7" t="n">
-        <v>0.408</v>
+        <v>0.5</v>
       </c>
       <c r="N7" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>61</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.8029999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="R7" t="n">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="S7" t="n">
-        <v>155</v>
+        <v>0.5</v>
       </c>
       <c r="T7" t="n">
-        <v>130</v>
+        <v>0.5</v>
       </c>
       <c r="U7" t="n">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
+        <v>7</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.7140000000000001</v>
+      </c>
+      <c r="X7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" t="n">
         <v>5</v>
       </c>
-      <c r="W7" t="n">
-        <v>73</v>
-      </c>
-      <c r="X7" t="n">
-        <v>129</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>523</v>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 183</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 77 </t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AC7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 211</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 95 </t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AC7" t="n">
-        <v>93</v>
-      </c>
+      <c r="AJ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1105,97 +1272,116 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1977-78</t>
+          <t>2012-13</t>
         </is>
       </c>
       <c r="D8" t="n">
+        <v>27</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>30</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>284</v>
+      </c>
+      <c r="K8" t="n">
+        <v>48</v>
+      </c>
+      <c r="L8" t="n">
+        <v>75</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="n">
+        <v>48</v>
+      </c>
+      <c r="R8" t="n">
+        <v>75</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="U8" t="n">
+        <v>21</v>
+      </c>
+      <c r="V8" t="n">
+        <v>34</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="X8" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC8" t="n">
         <v>28</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>32</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>492</v>
-      </c>
-      <c r="K8" t="n">
-        <v>96</v>
-      </c>
-      <c r="L8" t="n">
-        <v>235</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="N8" t="n">
-        <v>7</v>
-      </c>
-      <c r="O8" t="n">
-        <v>10</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>23</v>
-      </c>
-      <c r="R8" t="n">
-        <v>39</v>
-      </c>
-      <c r="S8" t="n">
-        <v>62</v>
-      </c>
-      <c r="T8" t="n">
-        <v>48</v>
-      </c>
-      <c r="U8" t="n">
-        <v>31</v>
-      </c>
-      <c r="V8" t="n">
-        <v>4</v>
-      </c>
-      <c r="W8" t="n">
-        <v>23</v>
-      </c>
-      <c r="X8" t="n">
-        <v>53</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>199</v>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 183</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 77 </t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AD8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>49</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>117</v>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 211</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 95 </t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AC8" t="n">
-        <v>93</v>
-      </c>
+      <c r="AJ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1206,17 +1392,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1977-78</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>28</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>WSB</t>
-        </is>
-      </c>
+          <t>Career</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NBA</t>
@@ -1224,275 +1404,98 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>39</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>71</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
       <c r="J9" t="n">
-        <v>807</v>
+        <v>597</v>
       </c>
       <c r="K9" t="n">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="L9" t="n">
-        <v>346</v>
+        <v>137</v>
       </c>
       <c r="M9" t="n">
-        <v>0.408</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="N9" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="n">
+        <v>77</v>
+      </c>
+      <c r="R9" t="n">
+        <v>137</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="U9" t="n">
         <v>51</v>
       </c>
-      <c r="P9" t="n">
-        <v>0.8240000000000001</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>20</v>
-      </c>
-      <c r="R9" t="n">
+      <c r="V9" t="n">
         <v>73</v>
       </c>
-      <c r="S9" t="n">
-        <v>93</v>
-      </c>
-      <c r="T9" t="n">
-        <v>82</v>
-      </c>
-      <c r="U9" t="n">
-        <v>31</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1</v>
-      </c>
       <c r="W9" t="n">
-        <v>50</v>
+        <v>0.6990000000000001</v>
       </c>
       <c r="X9" t="n">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="Y9" t="n">
-        <v>324</v>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 183</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 77 </t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+        <v>85</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>132</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>46</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>103</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>205</v>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 211</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 95 </t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AC9" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1978-79</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>29</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>WSB</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>82</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>1819</v>
-      </c>
-      <c r="K10" t="n">
-        <v>342</v>
-      </c>
-      <c r="L10" t="n">
-        <v>786</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.435</v>
-      </c>
-      <c r="N10" t="n">
-        <v>67</v>
-      </c>
-      <c r="O10" t="n">
-        <v>79</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.848</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>70</v>
-      </c>
-      <c r="R10" t="n">
-        <v>132</v>
-      </c>
-      <c r="S10" t="n">
-        <v>202</v>
-      </c>
-      <c r="T10" t="n">
-        <v>177</v>
-      </c>
-      <c r="U10" t="n">
-        <v>95</v>
-      </c>
-      <c r="V10" t="n">
-        <v>6</v>
-      </c>
-      <c r="W10" t="n">
-        <v>87</v>
-      </c>
-      <c r="X10" t="n">
-        <v>161</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>751</v>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 183</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 77 </t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AC10" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Career</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>521</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>9972</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1935</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4507</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="N11" t="n">
-        <v>371</v>
-      </c>
-      <c r="O11" t="n">
-        <v>491</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.7559999999999999</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>423</v>
-      </c>
-      <c r="R11" t="n">
-        <v>763</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1318</v>
-      </c>
-      <c r="T11" t="n">
-        <v>973</v>
-      </c>
-      <c r="U11" t="n">
-        <v>534</v>
-      </c>
-      <c r="V11" t="n">
-        <v>40</v>
-      </c>
-      <c r="W11" t="n">
-        <v>160</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1022</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>4241</v>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 183</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 77 </t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AC11" t="n">
-        <v>93</v>
-      </c>
+      <c r="AJ9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/players_stats/Chris Johnson.xlsx
+++ b/players_stats/Chris Johnson.xlsx
@@ -544,163 +544,167 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2010-11</t>
+          <t>2012-13</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>TOT</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>.440</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>.333</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>.714</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>.560</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>138</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>.429</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>.500</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>.429</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>.429</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>.750</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 211</t>
+          <t xml:space="preserve"> 198</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 95 </t>
+          <t xml:space="preserve"> 93 </t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr"/>
@@ -711,17 +715,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2010-11</t>
+          <t>2013-14</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -731,143 +735,147 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>789</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>85</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>214</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>.389</t>
+          <t>.397</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>43</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>.339</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>42</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>87</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>.389</t>
+          <t>.483</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>.389</t>
+          <t>.498</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>37</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>43</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>.722</t>
+          <t>.860</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>66</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>250</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 211</t>
+          <t xml:space="preserve"> 198</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 95 </t>
+          <t xml:space="preserve"> 93 </t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr"/>
@@ -878,17 +886,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2010-11</t>
+          <t>2014-15</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>TOT</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -898,143 +906,147 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>29</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>526</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>62</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>154</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>.667</t>
+          <t>.403</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr"/>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>.295</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>34</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>59</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>.667</t>
+          <t>.576</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>.667</t>
+          <t>.494</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>.875</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>47</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>55</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>44</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>166</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 211</t>
+          <t xml:space="preserve"> 198</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 95 </t>
+          <t xml:space="preserve"> 93 </t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr"/>
@@ -1045,163 +1057,167 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2011-12</t>
+          <t>2014-15</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>.317</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>.256</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>.429</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>.400</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>.750</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>TOT</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>.488</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>.488</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>.488</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>.789</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 211</t>
+          <t xml:space="preserve"> 198</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 95 </t>
+          <t xml:space="preserve"> 93 </t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr"/>
@@ -1212,163 +1228,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2011-12</t>
+          <t>2014-15</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>.484</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>.342</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>.692</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>.586</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>.478</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>.478</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>.478</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>.833</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>81</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 211</t>
+          <t xml:space="preserve"> 198</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 95 </t>
+          <t xml:space="preserve"> 93 </t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr"/>
@@ -1379,17 +1399,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2011-12</t>
+          <t>2014-15</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NOH</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1399,143 +1419,147 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>.400</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>.278</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>.583</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>.483</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>.500</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>.500</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>.500</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>.714</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 211</t>
+          <t xml:space="preserve"> 198</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 95 </t>
+          <t xml:space="preserve"> 93 </t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr"/>
@@ -1546,163 +1570,167 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2012-13</t>
+          <t>2015-16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>857</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>.371</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>284</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>.640</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr"/>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>.273</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>45</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>95</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>.640</t>
+          <t>.474</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>.640</t>
+          <t>.441</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>42</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>.618</t>
+          <t>.810</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>205</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 211</t>
+          <t xml:space="preserve"> 198</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 95 </t>
+          <t xml:space="preserve"> 93 </t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr"/>
@@ -1726,138 +1754,142 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2274</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>.392</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>.307</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>.508</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>.480</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>.835</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
           <t>71</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>597</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>.562</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>.562</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>.562</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>.699</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>224</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>295</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>93</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>212</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>650</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 211</t>
+          <t xml:space="preserve"> 198</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 95 </t>
+          <t xml:space="preserve"> 93 </t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr"/>

--- a/players_stats/Chris Johnson.xlsx
+++ b/players_stats/Chris Johnson.xlsx
@@ -544,17 +544,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2012-13</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>TOT</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -564,147 +564,143 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>138</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>.440</t>
+          <t>.429</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>.333</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>21</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>.714</t>
+          <t>.429</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>.560</t>
+          <t>.429</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>.500</t>
+          <t>.750</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 198</t>
+          <t xml:space="preserve"> 211</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 93 </t>
+          <t xml:space="preserve"> 95 </t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr"/>
@@ -715,17 +711,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2013-14</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -735,147 +731,143 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>106</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>18</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>.397</t>
+          <t>.389</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>.339</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>7</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>18</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>.483</t>
+          <t>.389</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>.498</t>
+          <t>.389</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>13</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>18</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>.860</t>
+          <t>.722</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>16</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>27</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 198</t>
+          <t xml:space="preserve"> 211</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 93 </t>
+          <t xml:space="preserve"> 95 </t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr"/>
@@ -886,17 +878,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2014-15</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TOT</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -906,147 +898,143 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>526</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>.403</t>
+          <t>.667</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>.295</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>.576</t>
+          <t>.667</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>.494</t>
+          <t>.667</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>.875</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 198</t>
+          <t xml:space="preserve"> 211</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 93 </t>
+          <t xml:space="preserve"> 95 </t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr"/>
@@ -1057,17 +1045,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2014-15</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>TOT</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1077,147 +1065,143 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>.488</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>.488</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>.488</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>.789</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>187</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>.317</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>.256</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>.429</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>.400</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>.750</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 198</t>
+          <t xml:space="preserve"> 211</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 93 </t>
+          <t xml:space="preserve"> 95 </t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr"/>
@@ -1228,17 +1212,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2014-15</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1248,147 +1232,143 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>.478</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>.478</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>.478</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>.484</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>.342</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>.833</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>.692</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>.586</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
       <c r="Z6" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 198</t>
+          <t xml:space="preserve"> 211</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 93 </t>
+          <t xml:space="preserve"> 95 </t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr"/>
@@ -1399,17 +1379,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2014-15</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NOH</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1419,147 +1399,143 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>.500</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>.500</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>.500</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>.714</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>128</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>.400</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>.278</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>.583</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>.483</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 198</t>
+          <t xml:space="preserve"> 211</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 93 </t>
+          <t xml:space="preserve"> 95 </t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr"/>
@@ -1570,17 +1546,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2015-16</t>
+          <t>2012-13</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1590,147 +1566,143 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>857</t>
+          <t>284</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>75</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>.371</t>
+          <t>.640</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>.273</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>48</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>75</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>.474</t>
+          <t>.640</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>.441</t>
+          <t>.640</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
           <t>34</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>.810</t>
+          <t>.618</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>20</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>40</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>60</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>117</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 198</t>
+          <t xml:space="preserve"> 211</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 93 </t>
+          <t xml:space="preserve"> 95 </t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr"/>
@@ -1754,142 +1726,138 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>71</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2274</t>
+          <t>597</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>137</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>.392</t>
+          <t>.562</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>339</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>.307</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>77</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>137</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>.508</t>
+          <t>.562</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>.480</t>
+          <t>.562</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>51</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>.699</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
           <t>103</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>.835</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>295</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>212</t>
-        </is>
-      </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>205</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 198</t>
+          <t xml:space="preserve"> 211</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 93 </t>
+          <t xml:space="preserve"> 95 </t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr"/>
